--- a/# четверть_#_$$_$$.xlsx
+++ b/# четверть_#_$$_$$.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user0\Desktop\Homework-repo\GB_Developer_Workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7A5E0B-E2FB-4FE6-97F0-EA4215DA2274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10326DA-46A7-40DE-98EC-862255ECF60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Название 1-3" sheetId="12" r:id="rId1"/>
+    <sheet name="Template" sheetId="12" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -410,41 +410,41 @@
   <dimension ref="A2:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="8"/>
-    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="8"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -463,7 +463,7 @@
       <c r="S2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
